--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="12765"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="October" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Customer Name</t>
   </si>
   <si>
-    <t>SOB#</t>
+    <t>AJH#</t>
   </si>
   <si>
     <t>Type of Change</t>
@@ -34,70 +34,55 @@
     <t>CC</t>
   </si>
   <si>
-    <t>JC Ryan</t>
-  </si>
-  <si>
-    <t>SOB082111</t>
-  </si>
-  <si>
-    <t>Change Lock</t>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>AJH082111</t>
+  </si>
+  <si>
+    <t>Produce</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Eckard Hdwe</t>
-  </si>
-  <si>
-    <t>SOB080896</t>
-  </si>
-  <si>
-    <t>Tacc Inc.</t>
-  </si>
-  <si>
-    <t>SOB075642</t>
-  </si>
-  <si>
-    <t>Change Height</t>
-  </si>
-  <si>
-    <t>HRG</t>
-  </si>
-  <si>
-    <t>SOB079456</t>
-  </si>
-  <si>
-    <t>Change Color</t>
-  </si>
-  <si>
-    <t>Kendell</t>
-  </si>
-  <si>
-    <t>SOB083246</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>SOB045654</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>SOB081264</t>
-  </si>
-  <si>
-    <t>La Force</t>
-  </si>
-  <si>
-    <t>SOMT000065</t>
-  </si>
-  <si>
-    <t>Hospitality Openings</t>
-  </si>
-  <si>
-    <t>SOBYN000156</t>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>AJH080896</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>AJH075642</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>AJH079456</t>
+  </si>
+  <si>
+    <t>AJH083246</t>
+  </si>
+  <si>
+    <t>AJH045654</t>
+  </si>
+  <si>
+    <t>AJH081264</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>OPJD000065</t>
+  </si>
+  <si>
+    <t>AJHYN000156</t>
   </si>
 </sst>
 </file>
@@ -105,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -129,22 +114,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,24 +168,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +200,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -243,38 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,19 +274,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,163 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,80 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,155 +487,229 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +981,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1009,7 +994,7 @@
     <col min="6" max="6" width="4.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="12.75" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -1063,15 +1048,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="12.75" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -1080,15 +1065,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="12.75" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -1099,13 +1084,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1116,13 +1101,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1133,13 +1118,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -1150,13 +1135,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1167,13 +1152,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>50</v>
